--- a/ResultadoEleicoesDistritos/VISEU_NELAS.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_NELAS.xlsx
@@ -597,25 +597,25 @@
         <v>3700</v>
       </c>
       <c r="H2" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I2" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="J2" t="n">
-        <v>1536</v>
+        <v>1505</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="T2" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="U2" t="n">
         <v>20</v>
       </c>
       <c r="V2" t="n">
-        <v>2410</v>
+        <v>2440</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2366</v>
+        <v>2357</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>31</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
